--- a/test1.xlsx
+++ b/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,19 +50,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +87,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,14 +115,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,15 +406,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,32 +439,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2015211</v>
+        <v>2015211242</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>2015201</v>
-      </c>
-      <c r="G2">
-        <v>13216548543</v>
+        <v>2015211304</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>